--- a/excel_result/random/competition_01.xlsx
+++ b/excel_result/random/competition_01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ff42fe3cf594573e/Desktop/projekt/random_excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pawel\Desktop\Uczelnia\Metaheurystyki\Metaheuristics-project-IHTC\excel_result\random\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="8_{C06C487C-6417-4DCF-8D61-D12461D6BB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B00B986F-3713-4914-BFCE-E7A9F3FA44C2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38933599-AF90-4B52-B768-AC55381DD726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{BBF708AA-404B-42D5-AB5B-E0A589A90696}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" xr2:uid="{BBF708AA-404B-42D5-AB5B-E0A589A90696}"/>
   </bookViews>
   <sheets>
     <sheet name="logFile (2)" sheetId="3" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>countGenderMixHard</t>
   </si>
@@ -110,285 +110,6 @@
   </si>
   <si>
     <t>res</t>
-  </si>
-  <si>
-    <t>5603523.000000</t>
-  </si>
-  <si>
-    <t>6443736.000000</t>
-  </si>
-  <si>
-    <t>4903384.000000</t>
-  </si>
-  <si>
-    <t>5883978.000000</t>
-  </si>
-  <si>
-    <t>5393560.000000</t>
-  </si>
-  <si>
-    <t>5638787.000000</t>
-  </si>
-  <si>
-    <t>5183977.000000</t>
-  </si>
-  <si>
-    <t>5008333.000000</t>
-  </si>
-  <si>
-    <t>5079262.000000</t>
-  </si>
-  <si>
-    <t>5323827.000000</t>
-  </si>
-  <si>
-    <t>5848835.000000</t>
-  </si>
-  <si>
-    <t>5883419.000000</t>
-  </si>
-  <si>
-    <t>5008609.000000</t>
-  </si>
-  <si>
-    <t>4449454.000000</t>
-  </si>
-  <si>
-    <t>5428555.000000</t>
-  </si>
-  <si>
-    <t>5603386.000000</t>
-  </si>
-  <si>
-    <t>5533901.000000</t>
-  </si>
-  <si>
-    <t>5253640.000000</t>
-  </si>
-  <si>
-    <t>5428654.000000</t>
-  </si>
-  <si>
-    <t>5288572.000000</t>
-  </si>
-  <si>
-    <t>5743239.000000</t>
-  </si>
-  <si>
-    <t>4659760.000000</t>
-  </si>
-  <si>
-    <t>5394512.000000</t>
-  </si>
-  <si>
-    <t>5393584.000000</t>
-  </si>
-  <si>
-    <t>5534291.000000</t>
-  </si>
-  <si>
-    <t>5884237.000000</t>
-  </si>
-  <si>
-    <t>5114094.000000</t>
-  </si>
-  <si>
-    <t>5673436.000000</t>
-  </si>
-  <si>
-    <t>5149565.000000</t>
-  </si>
-  <si>
-    <t>5253737.000000</t>
-  </si>
-  <si>
-    <t>5428559.000000</t>
-  </si>
-  <si>
-    <t>5009752.000000</t>
-  </si>
-  <si>
-    <t>5813260.000000</t>
-  </si>
-  <si>
-    <t>4624403.000000</t>
-  </si>
-  <si>
-    <t>4765059.000000</t>
-  </si>
-  <si>
-    <t>4519171.000000</t>
-  </si>
-  <si>
-    <t>4975207.000000</t>
-  </si>
-  <si>
-    <t>5394541.000000</t>
-  </si>
-  <si>
-    <t>5883694.000000</t>
-  </si>
-  <si>
-    <t>5359692.000000</t>
-  </si>
-  <si>
-    <t>5253829.000000</t>
-  </si>
-  <si>
-    <t>5497984.000000</t>
-  </si>
-  <si>
-    <t>5323720.000000</t>
-  </si>
-  <si>
-    <t>5358878.000000</t>
-  </si>
-  <si>
-    <t>4903905.000000</t>
-  </si>
-  <si>
-    <t>5219675.000000</t>
-  </si>
-  <si>
-    <t>4834915.000000</t>
-  </si>
-  <si>
-    <t>4973344.000000</t>
-  </si>
-  <si>
-    <t>5183923.000000</t>
-  </si>
-  <si>
-    <t>5323208.000000</t>
-  </si>
-  <si>
-    <t>5359272.000000</t>
-  </si>
-  <si>
-    <t>5604422.000000</t>
-  </si>
-  <si>
-    <t>6197810.000000</t>
-  </si>
-  <si>
-    <t>5113965.000000</t>
-  </si>
-  <si>
-    <t>5708809.000000</t>
-  </si>
-  <si>
-    <t>5148895.000000</t>
-  </si>
-  <si>
-    <t>4799154.000000</t>
-  </si>
-  <si>
-    <t>4799643.000000</t>
-  </si>
-  <si>
-    <t>5184243.000000</t>
-  </si>
-  <si>
-    <t>5497953.000000</t>
-  </si>
-  <si>
-    <t>5324157.000000</t>
-  </si>
-  <si>
-    <t>5358814.000000</t>
-  </si>
-  <si>
-    <t>4868375.000000</t>
-  </si>
-  <si>
-    <t>4904201.000000</t>
-  </si>
-  <si>
-    <t>5148910.000000</t>
-  </si>
-  <si>
-    <t>5988431.000000</t>
-  </si>
-  <si>
-    <t>5358065.000000</t>
-  </si>
-  <si>
-    <t>5183843.000000</t>
-  </si>
-  <si>
-    <t>5184281.000000</t>
-  </si>
-  <si>
-    <t>5323369.000000</t>
-  </si>
-  <si>
-    <t>5394744.000000</t>
-  </si>
-  <si>
-    <t>5359303.000000</t>
-  </si>
-  <si>
-    <t>5323894.000000</t>
-  </si>
-  <si>
-    <t>5288701.000000</t>
-  </si>
-  <si>
-    <t>4519078.000000</t>
-  </si>
-  <si>
-    <t>5498654.000000</t>
-  </si>
-  <si>
-    <t>5288845.000000</t>
-  </si>
-  <si>
-    <t>4658866.000000</t>
-  </si>
-  <si>
-    <t>5288987.000000</t>
-  </si>
-  <si>
-    <t>4798308.000000</t>
-  </si>
-  <si>
-    <t>5883173.000000</t>
-  </si>
-  <si>
-    <t>5079401.000000</t>
-  </si>
-  <si>
-    <t>5847848.000000</t>
-  </si>
-  <si>
-    <t>5184184.000000</t>
-  </si>
-  <si>
-    <t>4938441.000000</t>
-  </si>
-  <si>
-    <t>4868658.000000</t>
-  </si>
-  <si>
-    <t>5848063.000000</t>
-  </si>
-  <si>
-    <t>5464450.000000</t>
-  </si>
-  <si>
-    <t>5393710.000000</t>
-  </si>
-  <si>
-    <t>4939497.000000</t>
-  </si>
-  <si>
-    <t>5183744.000000</t>
-  </si>
-  <si>
-    <t>4869349.000000</t>
-  </si>
-  <si>
-    <t>5358343.000000</t>
   </si>
   <si>
     <t>max</t>
@@ -837,35 +558,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11689234-CF07-4F2E-81C0-868AFBB3F904}">
   <dimension ref="A1:W101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Y11" sqref="Y11"/>
+    <sheetView tabSelected="1" topLeftCell="P2" workbookViewId="0">
+      <selection activeCell="T10" sqref="R10:T10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.19921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.46484375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.1328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.53125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="33.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.53125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.46484375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.53125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.46484375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.19921875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.46484375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -927,7 +648,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>17</v>
       </c>
@@ -989,7 +710,7 @@
         <v>5253890</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>21</v>
       </c>
@@ -1051,7 +772,7 @@
         <v>4763864</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>22</v>
       </c>
@@ -1113,7 +834,7 @@
         <v>5079035</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>22</v>
       </c>
@@ -1175,14 +896,14 @@
         <v>5638965</v>
       </c>
       <c r="V5" t="s">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="W5">
         <f>MAX(T5:T104)</f>
-        <v>6268912</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+        <v>6443736</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>24</v>
       </c>
@@ -1244,14 +965,14 @@
         <v>5253414</v>
       </c>
       <c r="V6" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="W6">
         <f>MIN(T5:T104)</f>
-        <v>5253414</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+        <v>4449454</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>22</v>
       </c>
@@ -1313,14 +1034,14 @@
         <v>5463380</v>
       </c>
       <c r="V7" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="W7">
         <f>AVERAGE(T5:T104)</f>
-        <v>5656167.75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+        <v>5305114.3298969073</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>27</v>
       </c>
@@ -1382,14 +1103,14 @@
         <v>6268912</v>
       </c>
       <c r="V8" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="W8">
         <f>STDEVA(T5:T104)</f>
-        <v>1133151.0001259986</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+        <v>387167.44597042887</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>20</v>
       </c>
@@ -1447,11 +1168,11 @@
       <c r="S9">
         <v>314</v>
       </c>
-      <c r="T9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="T9">
+        <v>5603523</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>32</v>
       </c>
@@ -1509,11 +1230,11 @@
       <c r="S10">
         <v>397</v>
       </c>
-      <c r="T10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="T10">
+        <v>6443736</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>16</v>
       </c>
@@ -1571,11 +1292,11 @@
       <c r="S11">
         <v>376</v>
       </c>
-      <c r="T11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="T11">
+        <v>4903384</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>28</v>
       </c>
@@ -1633,11 +1354,11 @@
       <c r="S12">
         <v>423</v>
       </c>
-      <c r="T12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="T12">
+        <v>5883978</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>19</v>
       </c>
@@ -1695,11 +1416,11 @@
       <c r="S13">
         <v>351</v>
       </c>
-      <c r="T13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="T13">
+        <v>5393560</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>19</v>
       </c>
@@ -1757,11 +1478,11 @@
       <c r="S14">
         <v>332</v>
       </c>
-      <c r="T14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="T14">
+        <v>5638787</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>18</v>
       </c>
@@ -1819,11 +1540,11 @@
       <c r="S15">
         <v>333</v>
       </c>
-      <c r="T15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="T15">
+        <v>5183977</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>23</v>
       </c>
@@ -1881,11 +1602,11 @@
       <c r="S16">
         <v>392</v>
       </c>
-      <c r="T16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T16">
+        <v>5008333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>20</v>
       </c>
@@ -1943,11 +1664,11 @@
       <c r="S17">
         <v>411</v>
       </c>
-      <c r="T17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T17">
+        <v>5079262</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2005,11 +1726,11 @@
       <c r="S18">
         <v>377</v>
       </c>
-      <c r="T18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T18">
+        <v>5323827</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>28</v>
       </c>
@@ -2067,11 +1788,11 @@
       <c r="S19">
         <v>388</v>
       </c>
-      <c r="T19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T19">
+        <v>5848835</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>24</v>
       </c>
@@ -2129,11 +1850,11 @@
       <c r="S20">
         <v>401</v>
       </c>
-      <c r="T20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T20">
+        <v>5883419</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>15</v>
       </c>
@@ -2191,11 +1912,11 @@
       <c r="S21">
         <v>326</v>
       </c>
-      <c r="T21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T21">
+        <v>5008609</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>15</v>
       </c>
@@ -2253,11 +1974,11 @@
       <c r="S22">
         <v>390</v>
       </c>
-      <c r="T22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T22">
+        <v>4449454</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>17</v>
       </c>
@@ -2315,11 +2036,11 @@
       <c r="S23">
         <v>326</v>
       </c>
-      <c r="T23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T23">
+        <v>5428555</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>15</v>
       </c>
@@ -2377,11 +2098,11 @@
       <c r="S24">
         <v>431</v>
       </c>
-      <c r="T24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T24">
+        <v>5603386</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>22</v>
       </c>
@@ -2439,11 +2160,11 @@
       <c r="S25">
         <v>423</v>
       </c>
-      <c r="T25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T25">
+        <v>5533901</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>23</v>
       </c>
@@ -2501,11 +2222,11 @@
       <c r="S26">
         <v>356</v>
       </c>
-      <c r="T26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T26">
+        <v>5253640</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>21</v>
       </c>
@@ -2563,11 +2284,11 @@
       <c r="S27">
         <v>329</v>
       </c>
-      <c r="T27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T27">
+        <v>5428654</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>20</v>
       </c>
@@ -2625,11 +2346,11 @@
       <c r="S28">
         <v>308</v>
       </c>
-      <c r="T28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T28">
+        <v>5288572</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>31</v>
       </c>
@@ -2687,11 +2408,11 @@
       <c r="S29">
         <v>445</v>
       </c>
-      <c r="T29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T29">
+        <v>5743239</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>19</v>
       </c>
@@ -2749,11 +2470,11 @@
       <c r="S30">
         <v>378</v>
       </c>
-      <c r="T30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T30">
+        <v>4659760</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>23</v>
       </c>
@@ -2811,11 +2532,11 @@
       <c r="S31">
         <v>364</v>
       </c>
-      <c r="T31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T31">
+        <v>5394512</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>22</v>
       </c>
@@ -2873,11 +2594,11 @@
       <c r="S32">
         <v>433</v>
       </c>
-      <c r="T32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T32">
+        <v>5393584</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>17</v>
       </c>
@@ -2935,11 +2656,11 @@
       <c r="S33">
         <v>403</v>
       </c>
-      <c r="T33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T33">
+        <v>5534291</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>22</v>
       </c>
@@ -2997,11 +2718,11 @@
       <c r="S34">
         <v>359</v>
       </c>
-      <c r="T34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T34">
+        <v>5884237</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>20</v>
       </c>
@@ -3059,11 +2780,11 @@
       <c r="S35">
         <v>436</v>
       </c>
-      <c r="T35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T35">
+        <v>5114094</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>25</v>
       </c>
@@ -3121,11 +2842,11 @@
       <c r="S36">
         <v>381</v>
       </c>
-      <c r="T36" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T36">
+        <v>5673436</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>22</v>
       </c>
@@ -3183,11 +2904,11 @@
       <c r="S37">
         <v>389</v>
       </c>
-      <c r="T37" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T37">
+        <v>5149565</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>20</v>
       </c>
@@ -3245,11 +2966,11 @@
       <c r="S38">
         <v>391</v>
       </c>
-      <c r="T38" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T38">
+        <v>5253737</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>20</v>
       </c>
@@ -3307,11 +3028,11 @@
       <c r="S39">
         <v>363</v>
       </c>
-      <c r="T39" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T39">
+        <v>5428559</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>16</v>
       </c>
@@ -3369,11 +3090,11 @@
       <c r="S40">
         <v>396</v>
       </c>
-      <c r="T40" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T40">
+        <v>5009752</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>26</v>
       </c>
@@ -3431,11 +3152,11 @@
       <c r="S41">
         <v>326</v>
       </c>
-      <c r="T41" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T41">
+        <v>5813260</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>26</v>
       </c>
@@ -3493,11 +3214,11 @@
       <c r="S42">
         <v>312</v>
       </c>
-      <c r="T42" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T42">
+        <v>4624403</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>17</v>
       </c>
@@ -3555,11 +3276,11 @@
       <c r="S43">
         <v>400</v>
       </c>
-      <c r="T43" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T43">
+        <v>4765059</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>12</v>
       </c>
@@ -3617,11 +3338,11 @@
       <c r="S44">
         <v>294</v>
       </c>
-      <c r="T44" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T44">
+        <v>4519171</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>17</v>
       </c>
@@ -3679,11 +3400,11 @@
       <c r="S45">
         <v>472</v>
       </c>
-      <c r="T45" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T45">
+        <v>4975207</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>16</v>
       </c>
@@ -3741,11 +3462,11 @@
       <c r="S46">
         <v>352</v>
       </c>
-      <c r="T46" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T46">
+        <v>5394541</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>22</v>
       </c>
@@ -3803,11 +3524,11 @@
       <c r="S47">
         <v>305</v>
       </c>
-      <c r="T47" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T47">
+        <v>5883694</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>17</v>
       </c>
@@ -3865,11 +3586,11 @@
       <c r="S48">
         <v>384</v>
       </c>
-      <c r="T48" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T48">
+        <v>5359692</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>21</v>
       </c>
@@ -3927,11 +3648,11 @@
       <c r="S49">
         <v>357</v>
       </c>
-      <c r="T49" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T49">
+        <v>5253829</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>30</v>
       </c>
@@ -3989,11 +3710,11 @@
       <c r="S50">
         <v>424</v>
       </c>
-      <c r="T50" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T50">
+        <v>5497984</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>15</v>
       </c>
@@ -4051,11 +3772,11 @@
       <c r="S51">
         <v>410</v>
       </c>
-      <c r="T51" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T51">
+        <v>5323720</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>21</v>
       </c>
@@ -4113,11 +3834,11 @@
       <c r="S52">
         <v>373</v>
       </c>
-      <c r="T52" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T52">
+        <v>5358878</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>21</v>
       </c>
@@ -4175,11 +3896,11 @@
       <c r="S53">
         <v>330</v>
       </c>
-      <c r="T53" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T53">
+        <v>4903905</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>24</v>
       </c>
@@ -4237,11 +3958,11 @@
       <c r="S54">
         <v>431</v>
       </c>
-      <c r="T54" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T54">
+        <v>5219675</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>13</v>
       </c>
@@ -4299,11 +4020,11 @@
       <c r="S55">
         <v>424</v>
       </c>
-      <c r="T55" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T55">
+        <v>4834915</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>15</v>
       </c>
@@ -4361,11 +4082,11 @@
       <c r="S56">
         <v>385</v>
       </c>
-      <c r="T56" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T56">
+        <v>4973344</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>17</v>
       </c>
@@ -4423,11 +4144,11 @@
       <c r="S57">
         <v>364</v>
       </c>
-      <c r="T57" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T57">
+        <v>5183923</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>15</v>
       </c>
@@ -4485,11 +4206,11 @@
       <c r="S58">
         <v>344</v>
       </c>
-      <c r="T58" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T58">
+        <v>5323208</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>21</v>
       </c>
@@ -4547,11 +4268,11 @@
       <c r="S59">
         <v>436</v>
       </c>
-      <c r="T59" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T59">
+        <v>5359272</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>24</v>
       </c>
@@ -4609,11 +4330,11 @@
       <c r="S60">
         <v>404</v>
       </c>
-      <c r="T60" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T60">
+        <v>5604422</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>25</v>
       </c>
@@ -4671,11 +4392,11 @@
       <c r="S61">
         <v>307</v>
       </c>
-      <c r="T61" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T61">
+        <v>6197810</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>22</v>
       </c>
@@ -4733,11 +4454,11 @@
       <c r="S62">
         <v>404</v>
       </c>
-      <c r="T62" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T62">
+        <v>5113965</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>20</v>
       </c>
@@ -4795,11 +4516,11 @@
       <c r="S63">
         <v>383</v>
       </c>
-      <c r="T63" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T63">
+        <v>5708809</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>25</v>
       </c>
@@ -4857,11 +4578,11 @@
       <c r="S64">
         <v>438</v>
       </c>
-      <c r="T64" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T64">
+        <v>5148895</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>10</v>
       </c>
@@ -4919,11 +4640,11 @@
       <c r="S65">
         <v>408</v>
       </c>
-      <c r="T65" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T65">
+        <v>4799154</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>26</v>
       </c>
@@ -4981,11 +4702,11 @@
       <c r="S66">
         <v>342</v>
       </c>
-      <c r="T66" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T66">
+        <v>4799643</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>17</v>
       </c>
@@ -5043,11 +4764,11 @@
       <c r="S67">
         <v>402</v>
       </c>
-      <c r="T67" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T67">
+        <v>5184243</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>20</v>
       </c>
@@ -5105,11 +4826,11 @@
       <c r="S68">
         <v>350</v>
       </c>
-      <c r="T68" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T68">
+        <v>5497953</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>25</v>
       </c>
@@ -5167,11 +4888,11 @@
       <c r="S69">
         <v>408</v>
       </c>
-      <c r="T69" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T69">
+        <v>5324157</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>21</v>
       </c>
@@ -5229,11 +4950,11 @@
       <c r="S70">
         <v>389</v>
       </c>
-      <c r="T70" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T70">
+        <v>5358814</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>17</v>
       </c>
@@ -5291,11 +5012,11 @@
       <c r="S71">
         <v>357</v>
       </c>
-      <c r="T71" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T71">
+        <v>4868375</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>23</v>
       </c>
@@ -5353,11 +5074,11 @@
       <c r="S72">
         <v>280</v>
       </c>
-      <c r="T72" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T72">
+        <v>4904201</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>22</v>
       </c>
@@ -5415,11 +5136,11 @@
       <c r="S73">
         <v>314</v>
       </c>
-      <c r="T73" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T73">
+        <v>5148910</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>15</v>
       </c>
@@ -5477,11 +5198,11 @@
       <c r="S74">
         <v>267</v>
       </c>
-      <c r="T74" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T74">
+        <v>5988431</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>25</v>
       </c>
@@ -5539,11 +5260,11 @@
       <c r="S75">
         <v>378</v>
       </c>
-      <c r="T75" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T75">
+        <v>5358065</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>19</v>
       </c>
@@ -5601,11 +5322,11 @@
       <c r="S76">
         <v>382</v>
       </c>
-      <c r="T76" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T76">
+        <v>5183843</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>18</v>
       </c>
@@ -5663,11 +5384,11 @@
       <c r="S77">
         <v>409</v>
       </c>
-      <c r="T77" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T77">
+        <v>5184281</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>15</v>
       </c>
@@ -5725,11 +5446,11 @@
       <c r="S78">
         <v>310</v>
       </c>
-      <c r="T78" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T78">
+        <v>5323369</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>26</v>
       </c>
@@ -5787,11 +5508,11 @@
       <c r="S79">
         <v>397</v>
       </c>
-      <c r="T79" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T79">
+        <v>5394744</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>19</v>
       </c>
@@ -5849,11 +5570,11 @@
       <c r="S80">
         <v>431</v>
       </c>
-      <c r="T80" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T80">
+        <v>5359303</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>27</v>
       </c>
@@ -5911,11 +5632,11 @@
       <c r="S81">
         <v>491</v>
       </c>
-      <c r="T81" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T81">
+        <v>5323894</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>16</v>
       </c>
@@ -5973,11 +5694,11 @@
       <c r="S82">
         <v>411</v>
       </c>
-      <c r="T82" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T82">
+        <v>5288701</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>8</v>
       </c>
@@ -6035,11 +5756,11 @@
       <c r="S83">
         <v>438</v>
       </c>
-      <c r="T83" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T83">
+        <v>4519078</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>20</v>
       </c>
@@ -6097,11 +5818,11 @@
       <c r="S84">
         <v>381</v>
       </c>
-      <c r="T84" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T84">
+        <v>5498654</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>14</v>
       </c>
@@ -6159,11 +5880,11 @@
       <c r="S85">
         <v>294</v>
       </c>
-      <c r="T85" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T85">
+        <v>5288845</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>16</v>
       </c>
@@ -6221,11 +5942,11 @@
       <c r="S86">
         <v>395</v>
       </c>
-      <c r="T86" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T86">
+        <v>4658866</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>20</v>
       </c>
@@ -6283,11 +6004,11 @@
       <c r="S87">
         <v>345</v>
       </c>
-      <c r="T87" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T87">
+        <v>5288987</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>11</v>
       </c>
@@ -6345,11 +6066,11 @@
       <c r="S88">
         <v>341</v>
       </c>
-      <c r="T88" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T88">
+        <v>4798308</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>30</v>
       </c>
@@ -6407,11 +6128,11 @@
       <c r="S89">
         <v>389</v>
       </c>
-      <c r="T89" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T89">
+        <v>5883173</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>19</v>
       </c>
@@ -6469,11 +6190,11 @@
       <c r="S90">
         <v>454</v>
       </c>
-      <c r="T90" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T90">
+        <v>5079401</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>23</v>
       </c>
@@ -6531,11 +6252,11 @@
       <c r="S91">
         <v>370</v>
       </c>
-      <c r="T91" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T91">
+        <v>5847848</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>20</v>
       </c>
@@ -6593,11 +6314,11 @@
       <c r="S92">
         <v>445</v>
       </c>
-      <c r="T92" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T92">
+        <v>5184184</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>19</v>
       </c>
@@ -6655,11 +6376,11 @@
       <c r="S93">
         <v>405</v>
       </c>
-      <c r="T93" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T93">
+        <v>4938441</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>16</v>
       </c>
@@ -6717,11 +6438,11 @@
       <c r="S94">
         <v>381</v>
       </c>
-      <c r="T94" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T94">
+        <v>4868658</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>24</v>
       </c>
@@ -6779,11 +6500,11 @@
       <c r="S95">
         <v>385</v>
       </c>
-      <c r="T95" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T95">
+        <v>5848063</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>18</v>
       </c>
@@ -6841,11 +6562,11 @@
       <c r="S96">
         <v>377</v>
       </c>
-      <c r="T96" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T96">
+        <v>5464450</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>19</v>
       </c>
@@ -6903,11 +6624,11 @@
       <c r="S97">
         <v>405</v>
       </c>
-      <c r="T97" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T97">
+        <v>5393710</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>22</v>
       </c>
@@ -6965,11 +6686,11 @@
       <c r="S98">
         <v>395</v>
       </c>
-      <c r="T98" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T98">
+        <v>4939497</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>24</v>
       </c>
@@ -7027,11 +6748,11 @@
       <c r="S99">
         <v>457</v>
       </c>
-      <c r="T99" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T99">
+        <v>5183744</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>17</v>
       </c>
@@ -7089,11 +6810,11 @@
       <c r="S100">
         <v>420</v>
       </c>
-      <c r="T100" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T100">
+        <v>4869349</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>24</v>
       </c>
@@ -7151,8 +6872,8 @@
       <c r="S101">
         <v>347</v>
       </c>
-      <c r="T101" t="s">
-        <v>112</v>
+      <c r="T101">
+        <v>5358343</v>
       </c>
     </row>
   </sheetData>
